--- a/big_data/estoque.xlsx
+++ b/big_data/estoque.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Planilha1!$A$1:$F$34</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -40,172 +43,175 @@
     <t xml:space="preserve">preco_compra</t>
   </si>
   <si>
-    <t xml:space="preserve">Prod01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot-Art</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xicaras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leiteira Texas Media 550ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xicara Café c/ pires Veneza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biscoitos, Bolos e Torradas em Sache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sache Biscoito AMANTEIGADO COCO RENATA SACHÊ 9G 2X2 CAIXA 280 und</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sache de Biscoito Maria RENATA 11G CAIXA 180 UNIDADES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlântica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toalha Personalizada Para Hotelaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toalha de Banho Bordada Turquesa cx 10 und</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdouni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capas Protetoras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capa Protetora de Travesseiro Scothgard c/ziper- Repelente a Água Cx 10 und</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capa Protetora de Travesseiro Laminado Jade - Cx 10 und</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capa Protetora Colchão Impermeável Laminado Sleep Jade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naturallys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mini Sabonete Para Hotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mini Sabonete Hotel Redondo Naturallys Plissado 20g cx 500 und</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParaHotel Maxi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colchao de Hotel Mola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colchão Mola ParaHotel Maxi Queen 158x198x27 por</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colchão Mola ParaHotel Maxi Solteiro 78x188x27 com Velcro por</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BaClean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aromatizante Ar Condicionado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pastilha Bacterida e Aromatizante Ar Condicionado Cx 10 und</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ParaHotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sabonetes e Amenities Para Hotelaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pente Plastico Personalizado Para Motel Descartavel - Cx 100 und</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kit Sais de Banho Personalizado 40 g - Sortido Cx 100 und</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Espuma de Banho Personalizado em Frasco 30 ml - Cx 100 und</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kit Amenities Personalizado Sabonete 15 g e Shampoo 30 ml Hotel 100 und</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lençol de Hotel, Cobertores e AFins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lençol Percal 180 fios Linha Esmeralda 60/40 Super Queen Cx 10 und por</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lençol Percal 180 fios Linha Esmeralda 60/40 Queen Cx 10 und</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prod19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toalha Para Hotel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kit 20 Toalhas De Rosto Para Hotel, Motel, Pousada</t>
+    <t xml:space="preserve">P01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KazeKami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secador de Parede 1200W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secador de Parede 1400W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secador de Parede 1400W (Preto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secador de Parede 1500W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secador de Parede 1500W (Preto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secador de Parede 1600W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secador de Parede 1800W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secador de Parede 2000W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secador de Cabelo PRO Antifurto 2000W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secador de Cabelo PRO Antifurto 2000W (Preto)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secador de Parede 1800W Profissional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secador de Parede 2000W Profissional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secador de Parede 2000W (127V) / 2100W (220V) Profissional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SakuraTek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acessórios para Banheiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balança Digital Branca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balança Digital Preta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaleiras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaleira Elétrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispenser Automático</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espelho de Aumento de Base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espelho de Aumento de LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espelho de Aumento de Parede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acessórios para Quarto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maleiro Cromado com Encosto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maleiro Cromado</t>
   </si>
 </sst>
 </file>
@@ -216,7 +222,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;R$ &quot;#,##0.00_);&quot;(R$ &quot;#,##0.00\)"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="[$R$-416]\ #,##0.00;[RED]\-[$R$-416]\ #,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -284,7 +290,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -294,7 +300,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -302,6 +308,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,7 +332,28 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7F7F7"/>
+          <bgColor rgb="FF272727"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -322,10 +361,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H11:H12"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -335,27 +374,27 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="66.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="13.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -369,14 +408,14 @@
       <c r="C2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.925</v>
+        <v>149.73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -389,357 +428,574 @@
       <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.345</v>
+        <v>169.9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>43.935</v>
+        <v>460.35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>34.1</v>
+        <v>469.26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>272.115</v>
+        <v>392.14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>106.345</v>
+        <v>362.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>60.58</v>
+        <v>410.55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>23.715</v>
+        <v>415.78</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>33</v>
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>281.655</v>
+        <v>435.66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>1017.5</v>
+        <v>593.82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>39</v>
+        <v>8</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>598.5</v>
+        <v>510.79</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>80.7</v>
+        <v>564.16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>53.5</v>
+        <v>659.08</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>49</v>
+        <v>8</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>215</v>
+        <v>667.97</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>51</v>
+        <v>8</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>86.645</v>
+        <v>510.79</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>53</v>
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>171.475</v>
+        <v>510.79</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>56</v>
+        <v>8</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>515.5</v>
+        <v>659.08</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>58</v>
+        <v>8</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>481.5</v>
+        <v>564.16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="4" t="n">
+        <v>57.59</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="4" t="n">
+        <v>57.59</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="4" t="n">
+        <v>421.69</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>457.85</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>231.23</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="4" t="n">
+        <v>163.23</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="4" t="n">
+        <v>188.52</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="4" t="n">
+        <v>151.3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="4" t="n">
+        <v>170.92</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="0" t="s">
+      <c r="D29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="E29" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F20" s="4" t="n">
-        <v>176.5</v>
-      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0"/>
+      <c r="E31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0"/>
+      <c r="E32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0"/>
+      <c r="E33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0"/>
+      <c r="E34" s="0"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F34"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -747,5 +1003,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>